--- a/uploads/employees.xlsx
+++ b/uploads/employees.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="employee" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/uploads/employees.xlsx
+++ b/uploads/employees.xlsx
@@ -24,64 +24,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
-    <t>Id</t>
+    <t>firstName</t>
   </si>
   <si>
-    <t>Last Name</t>
+    <t>lastName</t>
   </si>
   <si>
-    <t>Email Id</t>
+    <t>emailId</t>
   </si>
   <si>
-    <t>Occupation</t>
+    <t>occupation</t>
   </si>
   <si>
-    <t>Sex</t>
+    <t>dateOfHire</t>
   </si>
   <si>
-    <t>Resident in</t>
+    <t>sex</t>
   </si>
   <si>
-    <t>Date Of Hire</t>
+    <t>familyStatus</t>
   </si>
   <si>
-    <t>First Name</t>
+    <t>phoneNum</t>
   </si>
   <si>
-    <t>Family Status</t>
+    <t>tier</t>
   </si>
   <si>
-    <t>Phone Num</t>
+    <t>walletLimit</t>
   </si>
   <si>
-    <t>Wallet Limit</t>
+    <t>test fn</t>
   </si>
   <si>
-    <t>Tier</t>
+    <t>test ln</t>
   </si>
   <si>
-    <t>hi</t>
+    <t>test@gmail.com</t>
   </si>
   <si>
-    <t>ho</t>
+    <t>test</t>
   </si>
   <si>
-    <t>hih</t>
+    <t>male</t>
   </si>
   <si>
-    <t>ihi</t>
+    <t>Ontario</t>
   </si>
   <si>
-    <t>ih</t>
+    <t>single</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>employeeId</t>
+  </si>
+  <si>
+    <t>provienceName</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +111,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,17 +162,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,34 +455,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="8" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -464,84 +494,154 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6">
+        <v>40013</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3">
+        <v>9988765562</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F3" s="6">
+        <v>39648</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3">
+        <v>9988765562</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6">
+        <v>39282</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3">
+        <v>9988765562</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -554,34 +654,24 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -594,8 +684,9 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -608,8 +699,9 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -622,8 +714,9 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -636,8 +729,9 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -650,8 +744,9 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -664,8 +759,9 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -678,8 +774,9 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -692,8 +789,9 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -706,8 +804,9 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -720,8 +819,9 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -734,8 +834,9 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -748,8 +849,9 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -762,8 +864,9 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -776,8 +879,9 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -790,8 +894,9 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -804,8 +909,9 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -818,8 +924,9 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -832,8 +939,9 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -846,8 +954,9 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -860,8 +969,9 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -874,8 +984,9 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -888,8 +999,9 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -902,8 +1014,9 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -916,8 +1029,9 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -930,8 +1044,9 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -944,8 +1059,9 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -958,8 +1074,9 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -972,8 +1089,9 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -986,8 +1104,9 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1000,8 +1119,9 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1014,8 +1134,9 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1028,8 +1149,9 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1042,8 +1164,9 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1056,8 +1179,9 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1070,8 +1194,9 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1084,8 +1209,9 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1098,8 +1224,9 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1112,8 +1239,9 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1126,8 +1254,9 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1140,8 +1269,9 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1154,8 +1284,9 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1168,8 +1299,9 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1182,8 +1314,9 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1196,8 +1329,9 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1210,8 +1344,9 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1224,8 +1359,9 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1238,8 +1374,9 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1252,8 +1389,9 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1266,8 +1404,9 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1280,8 +1419,9 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1294,8 +1434,9 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1308,8 +1449,9 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1322,8 +1464,9 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1336,8 +1479,9 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1350,8 +1494,9 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1364,8 +1509,9 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1378,8 +1524,9 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1392,8 +1539,9 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1406,8 +1554,9 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1420,8 +1569,9 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1434,8 +1584,9 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1448,8 +1599,9 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1462,8 +1614,9 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1476,8 +1629,9 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1490,8 +1644,9 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1504,8 +1659,9 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1518,8 +1674,9 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1532,8 +1689,9 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1546,8 +1704,9 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1560,8 +1719,9 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1574,8 +1734,9 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1588,8 +1749,9 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1602,8 +1764,9 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1616,8 +1779,9 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1630,8 +1794,9 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1644,8 +1809,9 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1658,8 +1824,9 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1672,8 +1839,9 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1686,8 +1854,9 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1700,8 +1869,9 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1714,8 +1884,9 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1728,8 +1899,9 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1742,8 +1914,9 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1756,8 +1929,9 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1770,8 +1944,9 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1784,8 +1959,9 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1798,8 +1974,9 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1812,8 +1989,9 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1826,8 +2004,9 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1840,8 +2019,9 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1854,8 +2034,9 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1868,8 +2049,9 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1882,8 +2064,9 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1896,8 +2079,9 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1910,8 +2094,9 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1924,8 +2109,9 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1938,8 +2124,9 @@
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1952,8 +2139,9 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1966,8 +2154,9 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1980,8 +2169,9 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -1994,8 +2184,9 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2008,8 +2199,9 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="4"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2022,8 +2214,9 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="4"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2036,8 +2229,9 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2050,8 +2244,9 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2064,8 +2259,9 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2078,8 +2274,9 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="4"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2092,8 +2289,9 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2106,8 +2304,9 @@
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2120,8 +2319,9 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="4"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2134,8 +2334,9 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="4"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2148,8 +2349,9 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="4"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2162,8 +2364,9 @@
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="4"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2176,8 +2379,9 @@
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="4"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2190,8 +2394,9 @@
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="4"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2204,8 +2409,9 @@
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="4"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2218,8 +2424,9 @@
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="4"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2232,8 +2439,9 @@
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="4"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2246,8 +2454,9 @@
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="4"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2260,8 +2469,9 @@
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="4"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2274,8 +2484,9 @@
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="4"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2288,8 +2499,9 @@
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="4"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2302,8 +2514,9 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="4"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2316,8 +2529,9 @@
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="4"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2330,8 +2544,9 @@
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="4"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2344,8 +2559,9 @@
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="4"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2358,8 +2574,9 @@
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2372,8 +2589,9 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="4"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2386,8 +2604,9 @@
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="4"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2400,8 +2619,9 @@
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="4"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2414,8 +2634,9 @@
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="4"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2428,8 +2649,9 @@
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="4"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2442,8 +2664,9 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="4"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2456,8 +2679,9 @@
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="4"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2470,8 +2694,9 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="4"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2484,8 +2709,9 @@
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="4"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2498,8 +2724,9 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="4"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2512,8 +2739,9 @@
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="4"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2526,8 +2754,9 @@
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="4"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2540,8 +2769,9 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="4"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2554,8 +2784,9 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="4"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2568,8 +2799,9 @@
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="4"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2582,8 +2814,9 @@
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="4"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2596,8 +2829,9 @@
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="4"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2610,8 +2844,9 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="4"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2624,8 +2859,9 @@
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="4"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2638,8 +2874,9 @@
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="4"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2652,8 +2889,9 @@
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="4"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2666,8 +2904,9 @@
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="4"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2680,8 +2919,9 @@
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="4"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2694,8 +2934,9 @@
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" s="4"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2708,8 +2949,9 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" s="4"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2722,8 +2964,9 @@
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" s="4"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2736,8 +2979,9 @@
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" s="4"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2750,8 +2994,9 @@
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" s="4"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -2764,9 +3009,15 @@
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>